--- a/biology/Botanique/Amanita_rubescens/Amanita_rubescens.xlsx
+++ b/biology/Botanique/Amanita_rubescens/Amanita_rubescens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amanita rubescens
 Amanita rubescens, en français l'amanite rougissante connue aussi sous le nom d'amanite vineuse ou d'amanite rougeâtre, en raison de sa couleur, ou encore de golmotte, golmette ou golmelle, est une espèce de champignons basidiomycètes du genre Amanita dans la famille des Amanitaceae. Poussant dans les forêts de feuillus et de résineux, elle est comestible après cuisson.
@@ -514,10 +526,49 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Nom binomial accepté
-Amanita rubescens var. rubescens (Persoon 1797[1])
-Synonymes
-Agaricus rubescens (Pers.) Fr. 1821 (synonyme)
+          <t>Nom binomial accepté</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Amanita rubescens var. rubescens (Persoon 1797)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Amanita_rubescens</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amanita_rubescens</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Agaricus rubescens (Pers.) Fr. 1821 (synonyme)
 Agaricus rubescens var. rubescens (Pers.) Fr. 1821 (synonyme)
 Amanita rubescens var. alba Coker 1917 (synonyme)
 Amplariella rubescens (Pers.) E.-J. Gilbert 1941 (synonyme)
@@ -525,38 +576,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Amanita_rubescens</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Amanita_rubescens</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Variété</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Il existe une variété dont l'anneau est jaune soufré.
-Nom binomial accepté
-Amanita rubescens var. annulosulphurea Gillet 1874[2]</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
@@ -578,12 +597,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Caractéristiques</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les amanites sont des champignons à lames blanches, rarement jaunes, à pied bulbeux, avec ou sans anneau, dont les spores sont blanches.
+          <t>Variété</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe une variété dont l'anneau est jaune soufré.
 </t>
         </is>
       </c>
@@ -609,13 +630,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Variété</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Amanita rubescens, l’amanite rougissante présente un sporophore dont le chapeau de 4 à 20 cm est de couleur brun rosé, parsemé de petites verrues (provenant du voile) blanc cassé ou crème ochracé, qui peuvent être lavées par la pluie, avec des lames tachées de rose et dont le stipe (pied) subbulbeux est de couleur blanchâtre à brunâtre et mesure 6-22 cm sur 1,5-3,5 cm. Elle a une chair blanche qui rougit dans les blessures et à la cassure.
-</t>
+          <t>Nom binomial accepté</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Amanita rubescens var. annulosulphurea Gillet 1874</t>
         </is>
       </c>
     </row>
@@ -640,10 +666,78 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les amanites sont des champignons à lames blanches, rarement jaunes, à pied bulbeux, avec ou sans anneau, dont les spores sont blanches.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Amanita_rubescens</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amanita_rubescens</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amanita rubescens, l’amanite rougissante présente un sporophore dont le chapeau de 4 à 20 cm est de couleur brun rosé, parsemé de petites verrues (provenant du voile) blanc cassé ou crème ochracé, qui peuvent être lavées par la pluie, avec des lames tachées de rose et dont le stipe (pied) subbulbeux est de couleur blanchâtre à brunâtre et mesure 6-22 cm sur 1,5-3,5 cm. Elle a une chair blanche qui rougit dans les blessures et à la cassure.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Amanita_rubescens</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amanita_rubescens</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est souvent attaquée par les insectes parasites. Elle pousse sur les sols pauvres aussi bien dans les bois de feuillus que dans les bois de résineux, de l'été à l’automne.
 C’est dans les forêts d’épicéas qu’on trouve les plus gros exemplaires.
@@ -651,69 +745,6 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Amanita_rubescens</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Amanita_rubescens</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Toxicologie</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Contient de la rubescenslysine[3], une hémolysine, il est donc toxique cru.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Amanita_rubescens</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Amanita_rubescens</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Utilisation</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un bon comestible, à condition d'être bien cuit.
-La toxine, la rubescenslysine, perd son activité à 50 °C dans les 10 minutes[4].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
@@ -735,10 +766,79 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>Toxicologie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Contient de la rubescenslysine, une hémolysine, il est donc toxique cru.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Amanita_rubescens</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amanita_rubescens</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un bon comestible, à condition d'être bien cuit.
+La toxine, la rubescenslysine, perd son activité à 50 °C dans les 10 minutes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Amanita_rubescens</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Amanita_rubescens</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Risque de confusion</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Attention : confusion possible avec l’amanite panthère qui est un champignon très toxique. La distinction est cependant assez facile à faire pour les initiés :
 l'amanite rougissante, comme son nom l'indique, rougit à la cassure, tandis que l'amanite panthère reste blanche ;
